--- a/artefacts/analysis/6. Stability_Analysis_2-4-10-20_k_eps.xlsx
+++ b/artefacts/analysis/6. Stability_Analysis_2-4-10-20_k_eps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\HEI\P-4 Research Phase\Article_Empirical_Study\artefacts\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A262D2B-51E8-443E-A8F8-05EA99D7A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C190DA-0DA9-49C8-9706-942E21AA387C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="558" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SB-3_Stability_2k" sheetId="13" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="20K-colored" sheetId="19" r:id="rId4"/>
     <sheet name="10K-colored" sheetId="20" r:id="rId5"/>
     <sheet name="10K-Mono" sheetId="17" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId7"/>
+    <sheet name="Latex" sheetId="18" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="173">
   <si>
     <t>expt_n</t>
   </si>
@@ -549,6 +549,54 @@
   </si>
   <si>
     <t>PHM Multi-state</t>
+  </si>
+  <si>
+    <t>10 K</t>
+  </si>
+  <si>
+    <t>Simulated  - No noise</t>
+  </si>
+  <si>
+    <t>Simulated  - Low NBD</t>
+  </si>
+  <si>
+    <t>Simulated  - High NBD</t>
+  </si>
+  <si>
+    <t>PHM C01 SS - No noise</t>
+  </si>
+  <si>
+    <t>PHM C01 SS - Low NBD</t>
+  </si>
+  <si>
+    <t>PHM C01 SS - High NBD</t>
+  </si>
+  <si>
+    <t>PHM C04 SS - No noise</t>
+  </si>
+  <si>
+    <t>PHM C04 SS - Low NBD</t>
+  </si>
+  <si>
+    <t>PHM C04 SS - High NBD</t>
+  </si>
+  <si>
+    <t>PHM C06 SS - No noise</t>
+  </si>
+  <si>
+    <t>PHM C06 SS - Low NBD</t>
+  </si>
+  <si>
+    <t>PHM C06 SS - High NBD</t>
+  </si>
+  <si>
+    <t>PHM C01 MS - No noise</t>
+  </si>
+  <si>
+    <t>PHM C04 MS - No noise</t>
+  </si>
+  <si>
+    <t>PHM C06 MS - No noise</t>
   </si>
 </sst>
 </file>
@@ -1583,6 +1631,27 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1621,27 +1690,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4984,7 +5032,7 @@
       <c r="AM23" s="2"/>
     </row>
     <row r="24" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="76" t="s">
         <v>104</v>
       </c>
       <c r="N24" t="s">
@@ -5089,7 +5137,7 @@
       <c r="AM24" s="2"/>
     </row>
     <row r="25" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D25" s="69"/>
+      <c r="D25" s="76"/>
       <c r="N25" t="s">
         <v>70</v>
       </c>
@@ -5192,7 +5240,7 @@
       <c r="AM25" s="2"/>
     </row>
     <row r="26" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D26" s="69"/>
+      <c r="D26" s="76"/>
       <c r="N26" s="5" t="s">
         <v>68</v>
       </c>
@@ -5304,31 +5352,31 @@
     </row>
     <row r="29" spans="4:41" x14ac:dyDescent="0.3">
       <c r="N29" s="5"/>
-      <c r="O29" s="68" t="s">
+      <c r="O29" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68" t="s">
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68" t="s">
+      <c r="R29" s="75"/>
+      <c r="S29" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="T29" s="68"/>
+      <c r="T29" s="75"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="68" t="s">
+      <c r="W29" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68" t="s">
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68" t="s">
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB29" s="68"/>
+      <c r="AB29" s="75"/>
     </row>
     <row r="30" spans="4:41" x14ac:dyDescent="0.3">
       <c r="O30" s="6" t="s">
@@ -5652,31 +5700,31 @@
     </row>
     <row r="38" spans="14:28" x14ac:dyDescent="0.3">
       <c r="N38" s="5"/>
-      <c r="O38" s="68" t="s">
+      <c r="O38" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68" t="s">
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68" t="s">
+      <c r="R38" s="75"/>
+      <c r="S38" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="T38" s="68"/>
+      <c r="T38" s="75"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="68" t="s">
+      <c r="W38" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68" t="s">
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68" t="s">
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB38" s="68"/>
+      <c r="AB38" s="75"/>
     </row>
     <row r="39" spans="14:28" x14ac:dyDescent="0.3">
       <c r="O39" s="6" t="s">
@@ -8186,7 +8234,7 @@
       <c r="AM23" s="2"/>
     </row>
     <row r="24" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="76" t="s">
         <v>104</v>
       </c>
       <c r="N24" t="s">
@@ -8291,7 +8339,7 @@
       <c r="AM24" s="2"/>
     </row>
     <row r="25" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D25" s="69"/>
+      <c r="D25" s="76"/>
       <c r="N25" t="s">
         <v>70</v>
       </c>
@@ -8394,7 +8442,7 @@
       <c r="AM25" s="2"/>
     </row>
     <row r="26" spans="4:41" x14ac:dyDescent="0.3">
-      <c r="D26" s="69"/>
+      <c r="D26" s="76"/>
       <c r="N26" s="5" t="s">
         <v>68</v>
       </c>
@@ -8506,31 +8554,31 @@
     </row>
     <row r="29" spans="4:41" x14ac:dyDescent="0.3">
       <c r="N29" s="5"/>
-      <c r="O29" s="68" t="s">
+      <c r="O29" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68" t="s">
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68" t="s">
+      <c r="R29" s="75"/>
+      <c r="S29" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="T29" s="68"/>
+      <c r="T29" s="75"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="68" t="s">
+      <c r="W29" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68" t="s">
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68" t="s">
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB29" s="68"/>
+      <c r="AB29" s="75"/>
     </row>
     <row r="30" spans="4:41" x14ac:dyDescent="0.3">
       <c r="O30" s="6" t="s">
@@ -8854,31 +8902,31 @@
     </row>
     <row r="38" spans="14:28" x14ac:dyDescent="0.3">
       <c r="N38" s="5"/>
-      <c r="O38" s="68" t="s">
+      <c r="O38" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68" t="s">
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68" t="s">
+      <c r="R38" s="75"/>
+      <c r="S38" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="T38" s="68"/>
+      <c r="T38" s="75"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="68" t="s">
+      <c r="W38" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68" t="s">
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68" t="s">
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB38" s="68"/>
+      <c r="AB38" s="75"/>
     </row>
     <row r="39" spans="14:28" x14ac:dyDescent="0.3">
       <c r="O39" s="6" t="s">
@@ -9366,36 +9414,36 @@
       <c r="M2" s="49"/>
       <c r="N2" s="49"/>
       <c r="O2" s="49"/>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="79"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
-      <c r="W2" s="73" t="s">
+      <c r="W2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="75"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="82"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="D3" s="43"/>
@@ -9417,31 +9465,31 @@
       <c r="T3" s="67"/>
       <c r="U3" s="26"/>
       <c r="V3" s="26"/>
-      <c r="W3" s="77" t="s">
+      <c r="W3" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="79"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="86"/>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
-      <c r="AD3" s="77" t="s">
+      <c r="AD3" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="79"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="86"/>
       <c r="AI3" s="50"/>
       <c r="AJ3" s="50"/>
-      <c r="AK3" s="77" t="s">
+      <c r="AK3" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="79"/>
+      <c r="AL3" s="85"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="86"/>
     </row>
     <row r="4" spans="1:50" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -11680,7 +11728,7 @@
       <c r="AQ25" s="2"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="83" t="s">
         <v>104</v>
       </c>
       <c r="N26" t="s">
@@ -11788,7 +11836,7 @@
       <c r="AQ26" s="2"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="D27" s="76"/>
+      <c r="D27" s="83"/>
       <c r="N27" t="s">
         <v>70</v>
       </c>
@@ -11894,7 +11942,7 @@
       <c r="AQ27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="D28" s="76"/>
+      <c r="D28" s="83"/>
       <c r="N28" s="5" t="s">
         <v>68</v>
       </c>
@@ -12012,33 +12060,33 @@
     <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="68" t="s">
+      <c r="P31" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68" t="s">
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68" t="s">
+      <c r="S31" s="75"/>
+      <c r="T31" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="U31" s="68"/>
+      <c r="U31" s="75"/>
       <c r="V31" s="9"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="68" t="s">
+      <c r="Y31" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68" t="s">
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AB31" s="68"/>
+      <c r="AB31" s="75"/>
       <c r="AC31" s="9"/>
-      <c r="AD31" s="68" t="s">
+      <c r="AD31" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AE31" s="68"/>
+      <c r="AE31" s="75"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="P32" s="6" t="s">
@@ -12377,33 +12425,33 @@
     <row r="40" spans="14:31" x14ac:dyDescent="0.3">
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="68" t="s">
+      <c r="P40" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68" t="s">
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68" t="s">
+      <c r="S40" s="75"/>
+      <c r="T40" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="U40" s="68"/>
+      <c r="U40" s="75"/>
       <c r="V40" s="9"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="68" t="s">
+      <c r="Y40" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68" t="s">
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AB40" s="68"/>
+      <c r="AB40" s="75"/>
       <c r="AC40" s="9"/>
-      <c r="AD40" s="68" t="s">
+      <c r="AD40" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AE40" s="68"/>
+      <c r="AE40" s="75"/>
     </row>
     <row r="41" spans="14:31" x14ac:dyDescent="0.3">
       <c r="P41" s="6" t="s">
@@ -13002,756 +13050,756 @@
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" style="14" customWidth="1"/>
-    <col min="3" max="5" width="9.6640625" style="81" customWidth="1"/>
-    <col min="6" max="6" width="2" style="81" customWidth="1"/>
-    <col min="7" max="9" width="9.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="81" customWidth="1"/>
-    <col min="11" max="13" width="9.6640625" style="81" customWidth="1"/>
-    <col min="14" max="14" width="2" style="81" customWidth="1"/>
-    <col min="15" max="17" width="9.6640625" style="81" customWidth="1"/>
-    <col min="18" max="18" width="2.109375" style="81" customWidth="1"/>
+    <col min="3" max="5" width="9.6640625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="2" style="68" customWidth="1"/>
+    <col min="7" max="9" width="9.6640625" style="68" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="68" customWidth="1"/>
+    <col min="11" max="13" width="9.6640625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="2" style="68" customWidth="1"/>
+    <col min="15" max="17" width="9.6640625" style="68" customWidth="1"/>
+    <col min="18" max="18" width="2.109375" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="O2" s="80" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="O2" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="70" t="s">
         <v>139</v>
       </c>
       <c r="F3" s="41"/>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="70" t="s">
         <v>139</v>
       </c>
       <c r="J3" s="41"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="84"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="72">
         <v>0.71</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="72">
         <v>0.82906374671080496</v>
       </c>
       <c r="F4" s="41"/>
-      <c r="G4" s="85">
+      <c r="G4" s="72">
         <v>0</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="72">
         <v>0</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="72">
         <v>0</v>
       </c>
       <c r="J4" s="41"/>
-      <c r="K4" s="85">
+      <c r="K4" s="72">
         <v>0.502564102564102</v>
       </c>
-      <c r="L4" s="85">
+      <c r="L4" s="72">
         <v>0.96</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="72">
         <v>0.65961015923795396</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="72">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="P4" s="85">
+      <c r="P4" s="72">
         <v>0.01</v>
       </c>
-      <c r="Q4" s="85">
+      <c r="Q4" s="72">
         <v>1.7391304347826E-2</v>
       </c>
-      <c r="R4" s="84"/>
+      <c r="R4" s="71"/>
     </row>
     <row r="5" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="72">
         <v>0.94095238095238098</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="72">
         <v>0.94</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="72">
         <v>0.93971758664954996</v>
       </c>
       <c r="F5" s="41"/>
-      <c r="G5" s="85">
+      <c r="G5" s="72">
         <v>0.536190476190476</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="72">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="72">
         <v>0.54941102756892202</v>
       </c>
       <c r="J5" s="41"/>
-      <c r="K5" s="85">
+      <c r="K5" s="72">
         <v>0.88333333333333297</v>
       </c>
-      <c r="L5" s="85">
+      <c r="L5" s="72">
         <v>0.11</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="72">
         <v>0.19387351778656101</v>
       </c>
-      <c r="O5" s="85">
+      <c r="O5" s="72">
         <v>0</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="72">
         <v>0</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="72">
         <v>0</v>
       </c>
-      <c r="R5" s="84"/>
+      <c r="R5" s="71"/>
     </row>
     <row r="6" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="74">
         <v>0.88332392245435698</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="74">
         <v>0.98</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="74">
         <v>0.92888744834292103</v>
       </c>
       <c r="F6" s="41"/>
-      <c r="G6" s="87">
+      <c r="G6" s="74">
         <v>0.43873626373626301</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="74">
         <v>0.22</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="74">
         <v>0.288569165039753</v>
       </c>
       <c r="J6" s="41"/>
-      <c r="K6" s="87">
+      <c r="K6" s="74">
         <v>7.1212121212121199E-2</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="74">
         <v>0.04</v>
       </c>
-      <c r="M6" s="87">
+      <c r="M6" s="74">
         <v>5.1209677419354699E-2</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="74">
         <v>0.33333333333333298</v>
       </c>
-      <c r="P6" s="87">
+      <c r="P6" s="74">
         <v>0.04</v>
       </c>
-      <c r="Q6" s="87">
+      <c r="Q6" s="74">
         <v>7.1146245059288502E-2</v>
       </c>
-      <c r="R6" s="84"/>
+      <c r="R6" s="71"/>
     </row>
     <row r="7" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="72">
         <v>0.90105590062111796</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="72">
         <v>0.97</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="72">
         <v>0.9329866446656</v>
       </c>
       <c r="F7" s="41"/>
-      <c r="G7" s="85">
+      <c r="G7" s="72">
         <v>0</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="72">
         <v>0</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="72">
         <v>0</v>
       </c>
       <c r="J7" s="41"/>
-      <c r="K7" s="85">
+      <c r="K7" s="72">
         <v>8.5714285714285604E-2</v>
       </c>
-      <c r="L7" s="85">
+      <c r="L7" s="72">
         <v>0.03</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="72">
         <v>4.4444444444444398E-2</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="72">
         <v>0.529563218390804</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="72">
         <v>0.73</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="72">
         <v>0.61289795918367296</v>
       </c>
-      <c r="R7" s="84"/>
+      <c r="R7" s="71"/>
     </row>
     <row r="8" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="72">
         <v>0.94979114452798596</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="72">
         <v>0.91999999999999904</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="72">
         <v>0.93352424212501195</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="85">
+      <c r="G8" s="72">
         <v>0.49539428280846998</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="72">
         <v>0.45</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="72">
         <v>0.46865237385793201</v>
       </c>
       <c r="J8" s="41"/>
-      <c r="K8" s="85">
+      <c r="K8" s="72">
         <v>0.98</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="72">
         <v>0.47</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="72">
         <v>0.63434927697441601</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="72">
         <v>0.4</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="72">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="85">
+      <c r="Q8" s="72">
         <v>3.8095238095238002E-2</v>
       </c>
-      <c r="R8" s="84"/>
+      <c r="R8" s="71"/>
     </row>
     <row r="9" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="74">
         <v>0.830952380952381</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="74">
         <v>0.91999999999999904</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="74">
         <v>0.87228381374722797</v>
       </c>
       <c r="F9" s="41"/>
-      <c r="G9" s="87">
+      <c r="G9" s="74">
         <v>0.51445279866332405</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="74">
         <v>0.44</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="74">
         <v>0.47246169722949899</v>
       </c>
       <c r="J9" s="41"/>
-      <c r="K9" s="87">
+      <c r="K9" s="74">
         <v>0.87619047619047596</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="74">
         <v>0.24</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="74">
         <v>0.37458689458689398</v>
       </c>
-      <c r="O9" s="87">
+      <c r="O9" s="74">
         <v>0.2</v>
       </c>
-      <c r="P9" s="87">
+      <c r="P9" s="74">
         <v>0.01</v>
       </c>
-      <c r="Q9" s="87">
+      <c r="Q9" s="74">
         <v>1.9047619047619001E-2</v>
       </c>
-      <c r="R9" s="84"/>
+      <c r="R9" s="71"/>
     </row>
     <row r="10" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="72">
         <v>0.84886309342831001</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="72">
         <v>0.98</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="72">
         <v>0.90852887196816701</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="85">
+      <c r="G10" s="72">
         <v>0.5</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="72">
         <v>1</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="72">
         <v>0.66666666666666596</v>
       </c>
       <c r="J10" s="41"/>
-      <c r="K10" s="85">
+      <c r="K10" s="72">
         <v>0.8</v>
       </c>
-      <c r="L10" s="85">
+      <c r="L10" s="72">
         <v>0.05</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="72">
         <v>9.3506493506493399E-2</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="72">
         <v>0.51495726495726502</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="72">
         <v>0.25</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="Q10" s="72">
         <v>0.33097434175020302</v>
       </c>
-      <c r="R10" s="84"/>
+      <c r="R10" s="71"/>
     </row>
     <row r="11" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="72">
         <v>0.71465061120233497</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="72">
         <v>1</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="72">
         <v>0.83347807207989499</v>
       </c>
       <c r="F11" s="41"/>
-      <c r="G11" s="85">
+      <c r="G11" s="72">
         <v>0.51926032099945096</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="72">
         <v>0.6</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="72">
         <v>0.55480653561779403</v>
       </c>
       <c r="J11" s="41"/>
-      <c r="K11" s="85">
+      <c r="K11" s="72">
         <v>0.50284495021337094</v>
       </c>
-      <c r="L11" s="85">
+      <c r="L11" s="72">
         <v>0.97</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="72">
         <v>0.66218995765275201</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="72">
         <v>0.1</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="72">
         <v>0.01</v>
       </c>
-      <c r="Q11" s="85">
+      <c r="Q11" s="72">
         <v>1.8181818181818101E-2</v>
       </c>
-      <c r="R11" s="84"/>
+      <c r="R11" s="71"/>
     </row>
     <row r="12" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="74">
         <v>0.73346346407215901</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="74">
         <v>0.9</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="74">
         <v>0.80712058240100704</v>
       </c>
       <c r="F12" s="41"/>
-      <c r="G12" s="87">
+      <c r="G12" s="74">
         <v>0.5</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="74">
         <v>1</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="74">
         <v>0.66666666666666596</v>
       </c>
       <c r="J12" s="41"/>
-      <c r="K12" s="87">
+      <c r="K12" s="74">
         <v>0.4</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="74">
         <v>0.02</v>
       </c>
-      <c r="M12" s="87">
+      <c r="M12" s="74">
         <v>3.8095238095238002E-2</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="74">
         <v>0.40571428571428497</v>
       </c>
-      <c r="P12" s="87">
+      <c r="P12" s="74">
         <v>0.11</v>
       </c>
-      <c r="Q12" s="87">
+      <c r="Q12" s="74">
         <v>0.171374210330732</v>
       </c>
-      <c r="R12" s="84"/>
+      <c r="R12" s="71"/>
     </row>
     <row r="13" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="72">
         <v>1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="72">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="72">
         <v>0.73137254901960702</v>
       </c>
       <c r="F13" s="41"/>
-      <c r="G13" s="85">
+      <c r="G13" s="72">
         <v>0.59320175438596401</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="72">
         <v>0.53</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="72">
         <v>0.55937921727395401</v>
       </c>
       <c r="J13" s="41"/>
-      <c r="K13" s="85">
+      <c r="K13" s="72">
         <v>0.2</v>
       </c>
-      <c r="L13" s="85">
+      <c r="L13" s="72">
         <v>0.01</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="72">
         <v>1.9047619047619001E-2</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O13" s="72">
         <v>0.55759235044132005</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="72">
         <v>0.65999999999999903</v>
       </c>
-      <c r="Q13" s="85">
+      <c r="Q13" s="72">
         <v>0.60000806529450801</v>
       </c>
-      <c r="R13" s="84"/>
+      <c r="R13" s="71"/>
     </row>
     <row r="14" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="72">
         <v>0.93989974937343301</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="72">
         <v>0.91999999999999904</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="72">
         <v>0.92946841776110001</v>
       </c>
       <c r="F14" s="41"/>
-      <c r="G14" s="85">
+      <c r="G14" s="72">
         <v>0</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="72">
         <v>0</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="72">
         <v>0</v>
       </c>
       <c r="J14" s="41"/>
-      <c r="K14" s="85">
+      <c r="K14" s="72">
         <v>0.33333333333333298</v>
       </c>
-      <c r="L14" s="85">
+      <c r="L14" s="72">
         <v>0.03</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="72">
         <v>5.3830227743271203E-2</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="72">
         <v>0.2</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="72">
         <v>0.01</v>
       </c>
-      <c r="Q14" s="85">
+      <c r="Q14" s="72">
         <v>1.9047619047619001E-2</v>
       </c>
-      <c r="R14" s="84"/>
+      <c r="R14" s="71"/>
     </row>
     <row r="15" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="74">
         <v>0.69369503282546696</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="74">
         <v>0.88</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="74">
         <v>0.775009436489977</v>
       </c>
       <c r="F15" s="41"/>
-      <c r="G15" s="87">
+      <c r="G15" s="74">
         <v>0</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="74">
         <v>0</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="74">
         <v>0</v>
       </c>
       <c r="J15" s="41"/>
-      <c r="K15" s="87">
+      <c r="K15" s="74">
         <v>0.4</v>
       </c>
-      <c r="L15" s="87">
+      <c r="L15" s="74">
         <v>0.03</v>
       </c>
-      <c r="M15" s="87">
+      <c r="M15" s="74">
         <v>5.5411255411255397E-2</v>
       </c>
-      <c r="O15" s="87">
+      <c r="O15" s="74">
         <v>0.367792207792207</v>
       </c>
-      <c r="P15" s="87">
+      <c r="P15" s="74">
         <v>0.2</v>
       </c>
-      <c r="Q15" s="87">
+      <c r="Q15" s="74">
         <v>0.25796331435800102</v>
       </c>
-      <c r="R15" s="84"/>
+      <c r="R15" s="71"/>
     </row>
     <row r="16" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="72">
         <v>0.86259307689513598</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="72">
         <v>0.9</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="72">
         <v>0.878329068608795</v>
       </c>
       <c r="F16" s="41"/>
-      <c r="G16" s="85">
+      <c r="G16" s="72">
         <v>0.30571428571428499</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="72">
         <v>0.08</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="72">
         <v>0.12577777777777699</v>
       </c>
       <c r="J16" s="41"/>
-      <c r="K16" s="85">
+      <c r="K16" s="72">
         <v>0.35526881720430098</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="72">
         <v>0.54</v>
       </c>
-      <c r="M16" s="85">
+      <c r="M16" s="72">
         <v>0.42854901960784297</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O16" s="72">
         <v>0.57833333333333303</v>
       </c>
-      <c r="P16" s="85">
+      <c r="P16" s="72">
         <v>0.12</v>
       </c>
-      <c r="Q16" s="85">
+      <c r="Q16" s="72">
         <v>0.19382156973461301</v>
       </c>
-      <c r="R16" s="84"/>
+      <c r="R16" s="71"/>
     </row>
     <row r="17" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="72">
         <v>0.72282913165266105</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="72">
         <v>0.61</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="72">
         <v>0.658789923352333</v>
       </c>
       <c r="F17" s="41"/>
-      <c r="G17" s="85">
+      <c r="G17" s="72">
         <v>0.489181286549707</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="72">
         <v>0.94</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="72">
         <v>0.64330661545740397</v>
       </c>
       <c r="J17" s="41"/>
-      <c r="K17" s="85">
+      <c r="K17" s="72">
         <v>0.49986504723346797</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="72">
         <v>0.98</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="72">
         <v>0.66199103837911499</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O17" s="72">
         <v>0.436428571428571</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="72">
         <v>0.15</v>
       </c>
-      <c r="Q17" s="85">
+      <c r="Q17" s="72">
         <v>0.222471306471306</v>
       </c>
-      <c r="R17" s="84"/>
+      <c r="R17" s="71"/>
     </row>
     <row r="18" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="72">
         <v>1</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="72">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="72">
         <v>0.73338220918866004</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85">
+      <c r="F18" s="72"/>
+      <c r="G18" s="72">
         <v>0.5</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="72">
         <v>1</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="72">
         <v>0.66666666666666596</v>
       </c>
       <c r="J18" s="41"/>
-      <c r="K18" s="85">
+      <c r="K18" s="72">
         <v>0.505128205128205</v>
       </c>
-      <c r="L18" s="85">
+      <c r="L18" s="72">
         <v>0.99</v>
       </c>
-      <c r="M18" s="85">
+      <c r="M18" s="72">
         <v>0.66888759010325305</v>
       </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85">
+      <c r="N18" s="72"/>
+      <c r="O18" s="72">
         <v>0.53174751718869295</v>
       </c>
-      <c r="P18" s="85">
+      <c r="P18" s="72">
         <v>0.36</v>
       </c>
-      <c r="Q18" s="85">
+      <c r="Q18" s="72">
         <v>0.42556723706628802</v>
       </c>
-      <c r="R18" s="84"/>
+      <c r="R18" s="71"/>
     </row>
     <row r="21" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13759,15 +13807,15 @@
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="71">
         <f>AVERAGE(C4:C6)</f>
         <v>0.94142543446891269</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="71">
         <f>AVERAGE(D4:D6)</f>
         <v>0.87666666666666659</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="71">
         <f>AVERAGE(E4:E6)</f>
         <v>0.89922292723442532</v>
       </c>
@@ -13776,15 +13824,15 @@
       <c r="B23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="71">
         <f>AVERAGE(G4:G6)</f>
         <v>0.32497557997557963</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="71">
         <f>AVERAGE(H4:H6)</f>
         <v>0.26333333333333331</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="71">
         <f>AVERAGE(I4:I6)</f>
         <v>0.27932673086955834</v>
       </c>
@@ -13793,15 +13841,15 @@
       <c r="B24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="71">
         <f>AVERAGE(K4:K6)</f>
         <v>0.48570318570318544</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="71">
         <f>AVERAGE(L4:L6)</f>
         <v>0.37000000000000005</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="71">
         <f>AVERAGE(M4:M6)</f>
         <v>0.30156445148128991</v>
       </c>
@@ -13810,15 +13858,15 @@
       <c r="B25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="71">
         <f>AVERAGE(O4:O6)</f>
         <v>0.13333333333333319</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="71">
         <f>AVERAGE(P4:P6)</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="71">
         <f>AVERAGE(Q4:Q6)</f>
         <v>2.9512516469038168E-2</v>
       </c>
@@ -13827,13 +13875,13 @@
       <c r="B27" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13841,15 +13889,15 @@
       <c r="B28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="71">
         <f>AVERAGE(C7:C15)</f>
         <v>0.84581904188924328</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="71">
         <f>AVERAGE(D7:D15)</f>
         <v>0.89666666666666628</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="71">
         <f>AVERAGE(E7:E15)</f>
         <v>0.85819695891751036</v>
       </c>
@@ -13858,15 +13906,15 @@
       <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="71">
         <f>AVERAGE(G7:G15)</f>
         <v>0.34692323965080102</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="71">
         <f>AVERAGE(H7:H15)</f>
         <v>0.44666666666666671</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="71">
         <f>AVERAGE(I7:I15)</f>
         <v>0.37651479525694564</v>
       </c>
@@ -13875,15 +13923,15 @@
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="71">
         <f>AVERAGE(K7:K15)</f>
         <v>0.50867589393905166</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="71">
         <f>AVERAGE(L7:L15)</f>
         <v>0.20555555555555557</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="71">
         <f>AVERAGE(M7:M15)</f>
         <v>0.21949571194026479</v>
       </c>
@@ -13892,15 +13940,15 @@
       <c r="B31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="71">
         <f>AVERAGE(O7:O15)</f>
         <v>0.36395770303287572</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="71">
         <f>AVERAGE(P7:P15)</f>
         <v>0.22222222222222213</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="71">
         <f>AVERAGE(Q7:Q15)</f>
         <v>0.22973224280993454</v>
       </c>
@@ -13909,13 +13957,13 @@
       <c r="B33" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13923,15 +13971,15 @@
       <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="71">
         <f>AVERAGE(C16:C18)</f>
         <v>0.86180740284926571</v>
       </c>
-      <c r="D34" s="84">
+      <c r="D34" s="71">
         <f>AVERAGE(D16:D18)</f>
         <v>0.69666666666666666</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="71">
         <f>AVERAGE(E16:E18)</f>
         <v>0.7568337337165959</v>
       </c>
@@ -13940,15 +13988,15 @@
       <c r="B35" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="71">
         <f>AVERAGE(G16:G18)</f>
         <v>0.4316318574213307</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="71">
         <f>AVERAGE(H16:H18)</f>
         <v>0.67333333333333334</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E35" s="71">
         <f>AVERAGE(I16:I18)</f>
         <v>0.47858368663394896</v>
       </c>
@@ -13957,15 +14005,15 @@
       <c r="B36" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="71">
         <f>AVERAGE(K16:K18)</f>
         <v>0.45342068985532463</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="71">
         <f>AVERAGE(L16:L18)</f>
         <v>0.83666666666666656</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="71">
         <f>AVERAGE(M16:M18)</f>
         <v>0.58647588269673701</v>
       </c>
@@ -13974,15 +14022,15 @@
       <c r="B37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="71">
         <f>AVERAGE(O16:O18)</f>
         <v>0.51550314065019898</v>
       </c>
-      <c r="D37" s="84">
+      <c r="D37" s="71">
         <f>AVERAGE(P16:P18)</f>
         <v>0.21</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="71">
         <f>AVERAGE(Q16:Q18)</f>
         <v>0.28062003775740235</v>
       </c>
@@ -14183,763 +14231,763 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24CE1B-5F25-4F08-AF84-32F62E14361D}">
   <dimension ref="B2:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31.88671875" style="14" customWidth="1"/>
-    <col min="3" max="5" width="9.6640625" style="81" customWidth="1"/>
-    <col min="6" max="6" width="2" style="81" customWidth="1"/>
-    <col min="7" max="9" width="9.6640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="81" customWidth="1"/>
-    <col min="11" max="13" width="9.6640625" style="81" customWidth="1"/>
-    <col min="14" max="14" width="2" style="81" customWidth="1"/>
-    <col min="15" max="17" width="9.6640625" style="81" customWidth="1"/>
-    <col min="18" max="18" width="2.109375" style="81" customWidth="1"/>
+    <col min="3" max="5" width="9.6640625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="2" style="68" customWidth="1"/>
+    <col min="7" max="9" width="9.6640625" style="68" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="68" customWidth="1"/>
+    <col min="11" max="13" width="9.6640625" style="68" customWidth="1"/>
+    <col min="14" max="14" width="2" style="68" customWidth="1"/>
+    <col min="15" max="17" width="9.6640625" style="68" customWidth="1"/>
+    <col min="18" max="18" width="2.109375" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="O2" s="80" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="O2" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="70" t="s">
         <v>139</v>
       </c>
       <c r="F3" s="41"/>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="70" t="s">
         <v>139</v>
       </c>
       <c r="J3" s="41"/>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="84"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="72">
         <v>0.7</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="72">
         <v>0.82271454036159897</v>
       </c>
       <c r="F4" s="41"/>
-      <c r="G4" s="85">
+      <c r="G4" s="72">
         <v>0.48735072976559002</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="72">
         <v>0.44</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="72">
         <v>0.460271572753638</v>
       </c>
       <c r="J4" s="41"/>
-      <c r="K4" s="85">
+      <c r="K4" s="72">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="L4" s="85">
+      <c r="L4" s="72">
         <v>0.01</v>
       </c>
-      <c r="M4" s="85">
+      <c r="M4" s="72">
         <v>1.7391304347826E-2</v>
       </c>
-      <c r="O4" s="85">
+      <c r="O4" s="72">
         <v>0.45670163170163097</v>
       </c>
-      <c r="P4" s="85">
+      <c r="P4" s="72">
         <v>0.27999999999999903</v>
       </c>
-      <c r="Q4" s="85">
+      <c r="Q4" s="72">
         <v>0.34349726407568398</v>
       </c>
-      <c r="R4" s="84"/>
+      <c r="R4" s="71"/>
     </row>
     <row r="5" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="72">
         <v>0.93820384294068504</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="72">
         <v>0.9</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="72">
         <v>0.91787597511602603</v>
       </c>
       <c r="F5" s="41"/>
-      <c r="G5" s="85">
+      <c r="G5" s="72">
         <v>0</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="72">
         <v>0</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="72">
         <v>0</v>
       </c>
       <c r="J5" s="41"/>
-      <c r="K5" s="85">
+      <c r="K5" s="72">
         <v>0.45</v>
       </c>
-      <c r="L5" s="85">
+      <c r="L5" s="72">
         <v>0.03</v>
       </c>
-      <c r="M5" s="85">
+      <c r="M5" s="72">
         <v>5.4761904761904699E-2</v>
       </c>
-      <c r="O5" s="85">
+      <c r="O5" s="72">
         <v>0.36666666666666597</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="72">
         <v>0.06</v>
       </c>
-      <c r="Q5" s="85">
+      <c r="Q5" s="72">
         <v>0.10289855072463699</v>
       </c>
-      <c r="R5" s="84"/>
+      <c r="R5" s="71"/>
     </row>
     <row r="6" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="87">
+      <c r="C6" s="74">
         <v>0.89544513457556896</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="74">
         <v>1</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="74">
         <v>0.94415510751302001</v>
       </c>
       <c r="F6" s="41"/>
-      <c r="G6" s="87">
+      <c r="G6" s="74">
         <v>0.49757085020242903</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="74">
         <v>0.53</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="74">
         <v>0.51073967984723101</v>
       </c>
       <c r="J6" s="41"/>
-      <c r="K6" s="87">
+      <c r="K6" s="74">
         <v>0.49729729729729699</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="74">
         <v>0.96</v>
       </c>
-      <c r="M6" s="87">
+      <c r="M6" s="74">
         <v>0.65509038522665497</v>
       </c>
-      <c r="O6" s="87">
+      <c r="O6" s="74">
         <v>0.58428571428571396</v>
       </c>
-      <c r="P6" s="87">
+      <c r="P6" s="74">
         <v>0.15</v>
       </c>
-      <c r="Q6" s="87">
+      <c r="Q6" s="74">
         <v>0.237259259259259</v>
       </c>
-      <c r="R6" s="84"/>
+      <c r="R6" s="71"/>
     </row>
     <row r="7" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="72">
         <v>0.90724637681159404</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="72">
         <v>0.96</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="72">
         <v>0.93238797504254101</v>
       </c>
       <c r="F7" s="41"/>
-      <c r="G7" s="85">
+      <c r="G7" s="72">
         <v>0.52295195001077299</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="72">
         <v>0.55999999999999905</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="72">
         <v>0.53805310564589404</v>
       </c>
       <c r="J7" s="41"/>
-      <c r="K7" s="85">
+      <c r="K7" s="72">
         <v>0.36666666666666597</v>
       </c>
-      <c r="L7" s="85">
+      <c r="L7" s="72">
         <v>0.03</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="72">
         <v>5.46207415772633E-2</v>
       </c>
-      <c r="O7" s="85">
+      <c r="O7" s="72">
         <v>0.498181818181818</v>
       </c>
-      <c r="P7" s="85">
+      <c r="P7" s="72">
         <v>0.25</v>
       </c>
-      <c r="Q7" s="85">
+      <c r="Q7" s="72">
         <v>0.33198156682027602</v>
       </c>
-      <c r="R7" s="84"/>
+      <c r="R7" s="71"/>
     </row>
     <row r="8" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="72">
         <v>0.88616768370200805</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="72">
         <v>0.8</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="72">
         <v>0.83620437498038402</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="85">
+      <c r="G8" s="72">
         <v>0.38</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="72">
         <v>0.13</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="72">
         <v>0.19152380952380901</v>
       </c>
       <c r="J8" s="41"/>
-      <c r="K8" s="85">
+      <c r="K8" s="72">
         <v>0.4</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="72">
         <v>0.02</v>
       </c>
-      <c r="M8" s="85">
+      <c r="M8" s="72">
         <v>3.8095238095238002E-2</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="72">
         <v>0.46333333333333299</v>
       </c>
-      <c r="P8" s="85">
+      <c r="P8" s="72">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q8" s="85">
+      <c r="Q8" s="72">
         <v>0.20695837495837399</v>
       </c>
-      <c r="R8" s="84"/>
+      <c r="R8" s="71"/>
     </row>
     <row r="9" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="74">
         <v>0.78345221445221402</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="74">
         <v>0.93</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="74">
         <v>0.84949745906267604</v>
       </c>
       <c r="F9" s="41"/>
-      <c r="G9" s="87">
+      <c r="G9" s="74">
         <v>0</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="74">
         <v>0</v>
       </c>
-      <c r="I9" s="87">
+      <c r="I9" s="74">
         <v>0</v>
       </c>
       <c r="J9" s="41"/>
-      <c r="K9" s="87">
+      <c r="K9" s="74">
         <v>0.507538510170089</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="74">
         <v>0.96</v>
       </c>
-      <c r="M9" s="87">
+      <c r="M9" s="74">
         <v>0.66387937992262902</v>
       </c>
-      <c r="O9" s="87">
+      <c r="O9" s="74">
         <v>0.51861111111111102</v>
       </c>
-      <c r="P9" s="87">
+      <c r="P9" s="74">
         <v>0.21</v>
       </c>
-      <c r="Q9" s="87">
+      <c r="Q9" s="74">
         <v>0.28705098732684903</v>
       </c>
-      <c r="R9" s="84"/>
+      <c r="R9" s="71"/>
     </row>
     <row r="10" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="72">
         <v>0.82136363636363596</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="72">
         <v>0.96</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="72">
         <v>0.88470418470418399</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="85">
+      <c r="G10" s="72">
         <v>0.51333333333333298</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="72">
         <v>0.09</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="72">
         <v>0.14930009121313401</v>
       </c>
       <c r="J10" s="41"/>
-      <c r="K10" s="85">
+      <c r="K10" s="72">
         <v>0.49729729729729699</v>
       </c>
-      <c r="L10" s="85">
+      <c r="L10" s="72">
         <v>0.97</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="72">
         <v>0.65738923580136699</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="72">
         <v>0.488533633549113</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="72">
         <v>0.47</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="Q10" s="72">
         <v>0.47794475794475699</v>
       </c>
-      <c r="R10" s="84"/>
+      <c r="R10" s="71"/>
     </row>
     <row r="11" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="72">
         <v>0.73915343915343901</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="72">
         <v>0.99</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="72">
         <v>0.84622263336416803</v>
       </c>
       <c r="F11" s="41"/>
-      <c r="G11" s="85">
+      <c r="G11" s="72">
         <v>0.47445378151260498</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="72">
         <v>0.51</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="72">
         <v>0.48685827290705302</v>
       </c>
       <c r="J11" s="41"/>
-      <c r="K11" s="85">
+      <c r="K11" s="72">
         <v>0.70628844839371097</v>
       </c>
-      <c r="L11" s="85">
+      <c r="L11" s="72">
         <v>0.72</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M11" s="72">
         <v>0.71246314660948795</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="72">
         <v>0.53242424242424202</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="72">
         <v>0.27999999999999903</v>
       </c>
-      <c r="Q11" s="85">
+      <c r="Q11" s="72">
         <v>0.36601130886169803</v>
       </c>
-      <c r="R11" s="84"/>
+      <c r="R11" s="71"/>
     </row>
     <row r="12" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="74">
         <v>0.67061087061086999</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="74">
         <v>0.78</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="74">
         <v>0.71970022712108805</v>
       </c>
       <c r="F12" s="41"/>
-      <c r="G12" s="87">
+      <c r="G12" s="74">
         <v>0.52182327476445101</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="74">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="74">
         <v>0.53402106572838204</v>
       </c>
       <c r="J12" s="41"/>
-      <c r="K12" s="87">
+      <c r="K12" s="74">
         <v>0.5</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="74">
         <v>0.98</v>
       </c>
-      <c r="M12" s="87">
+      <c r="M12" s="74">
         <v>0.662107929086304</v>
       </c>
-      <c r="O12" s="87">
+      <c r="O12" s="74">
         <v>0.47212509712509698</v>
       </c>
-      <c r="P12" s="87">
+      <c r="P12" s="74">
         <v>0.25</v>
       </c>
-      <c r="Q12" s="87">
+      <c r="Q12" s="74">
         <v>0.32454019376989302</v>
       </c>
-      <c r="R12" s="84"/>
+      <c r="R12" s="71"/>
     </row>
     <row r="13" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="72">
         <v>1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="72">
         <v>0.65</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="72">
         <v>0.78461930226636101</v>
       </c>
       <c r="F13" s="41"/>
-      <c r="G13" s="85">
+      <c r="G13" s="72">
         <v>0.46507316885564198</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="72">
         <v>0.45999999999999902</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="72">
         <v>0.46099491000228299</v>
       </c>
       <c r="J13" s="41"/>
-      <c r="K13" s="85">
+      <c r="K13" s="72">
         <v>0.51066491592807295</v>
       </c>
-      <c r="L13" s="85">
+      <c r="L13" s="72">
         <v>0.98</v>
       </c>
-      <c r="M13" s="85">
+      <c r="M13" s="72">
         <v>0.67134229495421704</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O13" s="72">
         <v>0.37886002886002801</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="72">
         <v>0.13999999999999899</v>
       </c>
-      <c r="Q13" s="85">
+      <c r="Q13" s="72">
         <v>0.19753841717134199</v>
       </c>
-      <c r="R13" s="84"/>
+      <c r="R13" s="71"/>
     </row>
     <row r="14" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="72">
         <v>0.97770897832817305</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="72">
         <v>0.84</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="72">
         <v>0.90227439701123902</v>
       </c>
       <c r="F14" s="41"/>
-      <c r="G14" s="85">
+      <c r="G14" s="72">
         <v>0.49346220701719401</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="72">
         <v>0.53</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I14" s="72">
         <v>0.50827171841253505</v>
       </c>
       <c r="J14" s="41"/>
-      <c r="K14" s="85">
+      <c r="K14" s="72">
         <v>0.95128205128205101</v>
       </c>
-      <c r="L14" s="85">
+      <c r="L14" s="72">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="72">
         <v>0.72045454545454501</v>
       </c>
-      <c r="O14" s="85">
+      <c r="O14" s="72">
         <v>0.49988095238095198</v>
       </c>
-      <c r="P14" s="85">
+      <c r="P14" s="72">
         <v>0.38</v>
       </c>
-      <c r="Q14" s="85">
+      <c r="Q14" s="72">
         <v>0.43154061624649798</v>
       </c>
-      <c r="R14" s="84"/>
+      <c r="R14" s="71"/>
     </row>
     <row r="15" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="74">
         <v>0.71548717948717899</v>
       </c>
-      <c r="D15" s="87">
+      <c r="D15" s="74">
         <v>0.88</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="74">
         <v>0.78905577514273095</v>
       </c>
       <c r="F15" s="41"/>
-      <c r="G15" s="87">
+      <c r="G15" s="74">
         <v>0.50476315789473603</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="74">
         <v>0.46999999999999897</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="74">
         <v>0.48222993380888102</v>
       </c>
       <c r="J15" s="41"/>
-      <c r="K15" s="87">
+      <c r="K15" s="74">
         <v>0.50526315789473597</v>
       </c>
-      <c r="L15" s="87">
+      <c r="L15" s="74">
         <v>0.98</v>
       </c>
-      <c r="M15" s="87">
+      <c r="M15" s="74">
         <v>0.66670563023572904</v>
       </c>
-      <c r="O15" s="87">
+      <c r="O15" s="74">
         <v>0.36904761904761901</v>
       </c>
-      <c r="P15" s="87">
+      <c r="P15" s="74">
         <v>0.11</v>
       </c>
-      <c r="Q15" s="87">
+      <c r="Q15" s="74">
         <v>0.16880341880341801</v>
       </c>
-      <c r="R15" s="84"/>
+      <c r="R15" s="71"/>
     </row>
     <row r="16" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="72">
         <v>0.79847232816340297</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="72">
         <v>0.91999999999999904</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="72">
         <v>0.85218273397392597</v>
       </c>
       <c r="F16" s="41"/>
-      <c r="G16" s="85">
+      <c r="G16" s="72">
         <v>0.51369169960474304</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="72">
         <v>0.59</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I16" s="72">
         <v>0.54894056847545203</v>
       </c>
       <c r="J16" s="41"/>
-      <c r="K16" s="85">
+      <c r="K16" s="72">
         <v>0.58419117647058805</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="72">
         <v>0.97</v>
       </c>
-      <c r="M16" s="85">
+      <c r="M16" s="72">
         <v>0.72905982905982902</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O16" s="72">
         <v>0.48619047619047601</v>
       </c>
-      <c r="P16" s="85">
+      <c r="P16" s="72">
         <v>0.24</v>
       </c>
-      <c r="Q16" s="85">
+      <c r="Q16" s="72">
         <v>0.31270697167755901</v>
       </c>
-      <c r="R16" s="84"/>
+      <c r="R16" s="71"/>
     </row>
     <row r="17" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="72">
         <v>0.77421126345274904</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="72">
         <v>0.69</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="72">
         <v>0.72750762019054704</v>
       </c>
       <c r="F17" s="41"/>
-      <c r="G17" s="85">
+      <c r="G17" s="72">
         <v>0.47610413994853301</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="72">
         <v>0.53</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="72">
         <v>0.50034989548664299</v>
       </c>
       <c r="J17" s="41"/>
-      <c r="K17" s="85">
+      <c r="K17" s="72">
         <v>0.50555555555555498</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="72">
         <v>0.97</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M17" s="72">
         <v>0.66448888146725604</v>
       </c>
-      <c r="O17" s="85">
+      <c r="O17" s="72">
         <v>0.49499750249750202</v>
       </c>
-      <c r="P17" s="85">
+      <c r="P17" s="72">
         <v>0.33999999999999903</v>
       </c>
-      <c r="Q17" s="85">
+      <c r="Q17" s="72">
         <v>0.40142750355273998</v>
       </c>
-      <c r="R17" s="84"/>
+      <c r="R17" s="71"/>
     </row>
     <row r="18" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="72">
         <v>1</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="72">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="72">
         <v>0.72526881720430103</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85">
+      <c r="F18" s="72"/>
+      <c r="G18" s="72">
         <v>0.49119480519480502</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="72">
         <v>0.6</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="72">
         <v>0.53583627345707396</v>
       </c>
       <c r="J18" s="41"/>
-      <c r="K18" s="85">
+      <c r="K18" s="72">
         <v>0.49216909216909199</v>
       </c>
-      <c r="L18" s="85">
+      <c r="L18" s="72">
         <v>0.96</v>
       </c>
-      <c r="M18" s="85">
+      <c r="M18" s="72">
         <v>0.65060957478441805</v>
       </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85">
+      <c r="N18" s="72"/>
+      <c r="O18" s="72">
         <v>0.44648033126293901</v>
       </c>
-      <c r="P18" s="85">
+      <c r="P18" s="72">
         <v>0.48</v>
       </c>
-      <c r="Q18" s="85">
+      <c r="Q18" s="72">
         <v>0.46024952547924702</v>
       </c>
-      <c r="R18" s="84"/>
+      <c r="R18" s="71"/>
     </row>
     <row r="21" spans="2:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14947,15 +14995,15 @@
       <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="71">
         <f>AVERAGE(C4:C6)</f>
         <v>0.94454965917208467</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="71">
         <f>AVERAGE(D4:D6)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="71">
         <f>AVERAGE(E4:E6)</f>
         <v>0.89491520766354837</v>
       </c>
@@ -14964,15 +15012,15 @@
       <c r="B23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="71">
         <f>AVERAGE(G4:G6)</f>
         <v>0.32830719332267305</v>
       </c>
-      <c r="D23" s="84">
+      <c r="D23" s="71">
         <f>AVERAGE(H4:H6)</f>
         <v>0.32333333333333331</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="71">
         <f>AVERAGE(I4:I6)</f>
         <v>0.32367041753362297</v>
       </c>
@@ -14981,15 +15029,15 @@
       <c r="B24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="71">
         <f>AVERAGE(K4:K6)</f>
         <v>0.3379879879879879</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="71">
         <f>AVERAGE(L4:L6)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="71">
         <f>AVERAGE(M4:M6)</f>
         <v>0.24241453144546188</v>
       </c>
@@ -14998,15 +15046,15 @@
       <c r="B25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="84">
+      <c r="C25" s="71">
         <f>AVERAGE(O4:O6)</f>
         <v>0.46921800421800364</v>
       </c>
-      <c r="D25" s="84">
+      <c r="D25" s="71">
         <f>AVERAGE(P4:P6)</f>
         <v>0.163333333333333</v>
       </c>
-      <c r="E25" s="84">
+      <c r="E25" s="71">
         <f>AVERAGE(Q4:Q6)</f>
         <v>0.22788502468652663</v>
       </c>
@@ -15015,13 +15063,13 @@
       <c r="B27" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15029,15 +15077,15 @@
       <c r="B28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="71">
         <f>AVERAGE(C7:C15)</f>
         <v>0.83346559765656814</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="71">
         <f>AVERAGE(D7:D15)</f>
         <v>0.86555555555555552</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="71">
         <f>AVERAGE(E7:E15)</f>
         <v>0.83829625874393032</v>
       </c>
@@ -15046,15 +15094,15 @@
       <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="71">
         <f>AVERAGE(G7:G15)</f>
         <v>0.43065120815430386</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="71">
         <f>AVERAGE(H7:H15)</f>
         <v>0.36666666666666636</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="71">
         <f>AVERAGE(I7:I15)</f>
         <v>0.37236143413799683</v>
       </c>
@@ -15063,15 +15111,15 @@
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="71">
         <f>AVERAGE(K7:K15)</f>
         <v>0.54944456084806914</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="71">
         <f>AVERAGE(L7:L15)</f>
         <v>0.69111111111111123</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="71">
         <f>AVERAGE(M7:M15)</f>
         <v>0.53856201574853113</v>
       </c>
@@ -15080,15 +15128,15 @@
       <c r="B31" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="71">
         <f>AVERAGE(O7:O15)</f>
         <v>0.46899975955703471</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="71">
         <f>AVERAGE(P7:P15)</f>
         <v>0.24777777777777754</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="71">
         <f>AVERAGE(Q7:Q15)</f>
         <v>0.31026329354478949</v>
       </c>
@@ -15097,13 +15145,13 @@
       <c r="B33" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="81" t="s">
+      <c r="E33" s="68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -15111,15 +15159,15 @@
       <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="84">
+      <c r="C34" s="71">
         <f>AVERAGE(C16:C18)</f>
         <v>0.85756119720538404</v>
       </c>
-      <c r="D34" s="84">
+      <c r="D34" s="71">
         <f>AVERAGE(D16:D18)</f>
         <v>0.72666666666666624</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="71">
         <f>AVERAGE(E16:E18)</f>
         <v>0.76831972378959135</v>
       </c>
@@ -15128,15 +15176,15 @@
       <c r="B35" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="71">
         <f>AVERAGE(G16:G18)</f>
         <v>0.49366354824936032</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="71">
         <f>AVERAGE(H16:H18)</f>
         <v>0.57333333333333336</v>
       </c>
-      <c r="E35" s="84">
+      <c r="E35" s="71">
         <f>AVERAGE(I16:I18)</f>
         <v>0.528375579139723</v>
       </c>
@@ -15145,15 +15193,15 @@
       <c r="B36" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="71">
         <f>AVERAGE(K16:K18)</f>
         <v>0.52730527473174504</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="71">
         <f>AVERAGE(L16:L18)</f>
         <v>0.96666666666666667</v>
       </c>
-      <c r="E36" s="84">
+      <c r="E36" s="71">
         <f>AVERAGE(M16:M18)</f>
         <v>0.68138609510383441</v>
       </c>
@@ -15162,15 +15210,15 @@
       <c r="B37" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="84">
+      <c r="C37" s="71">
         <f>AVERAGE(O16:O18)</f>
         <v>0.4758894366503057</v>
       </c>
-      <c r="D37" s="84">
+      <c r="D37" s="71">
         <f>AVERAGE(P16:P18)</f>
         <v>0.353333333333333</v>
       </c>
-      <c r="E37" s="84">
+      <c r="E37" s="71">
         <f>AVERAGE(Q16:Q18)</f>
         <v>0.39146133356984869</v>
       </c>
@@ -15416,33 +15464,33 @@
       <c r="L2" s="49"/>
       <c r="M2" s="49"/>
       <c r="N2" s="49"/>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="72"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
       <c r="T2" s="49"/>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="75"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="82"/>
     </row>
     <row r="3" spans="1:47" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
@@ -17628,7 +17676,7 @@
       <c r="AN24" s="2"/>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="83" t="s">
         <v>104</v>
       </c>
       <c r="N25" t="s">
@@ -17734,7 +17782,7 @@
       <c r="AN25" s="2"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D26" s="76"/>
+      <c r="D26" s="83"/>
       <c r="N26" t="s">
         <v>70</v>
       </c>
@@ -17838,7 +17886,7 @@
       <c r="AN26" s="2"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="D27" s="76"/>
+      <c r="D27" s="83"/>
       <c r="N27" s="5" t="s">
         <v>68</v>
       </c>
@@ -17951,31 +17999,31 @@
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="N30" s="5"/>
-      <c r="O30" s="68" t="s">
+      <c r="O30" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68" t="s">
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68" t="s">
+      <c r="R30" s="75"/>
+      <c r="S30" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="T30" s="68"/>
+      <c r="T30" s="75"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="68" t="s">
+      <c r="W30" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68" t="s">
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68" t="s">
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB30" s="68"/>
+      <c r="AB30" s="75"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="O31" s="6" t="s">
@@ -18299,31 +18347,31 @@
     </row>
     <row r="39" spans="14:28" x14ac:dyDescent="0.3">
       <c r="N39" s="5"/>
-      <c r="O39" s="68" t="s">
+      <c r="O39" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68" t="s">
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68" t="s">
+      <c r="R39" s="75"/>
+      <c r="S39" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="T39" s="68"/>
+      <c r="T39" s="75"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="68" t="s">
+      <c r="W39" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68" t="s">
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68" t="s">
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="AB39" s="68"/>
+      <c r="AB39" s="75"/>
     </row>
     <row r="40" spans="14:28" x14ac:dyDescent="0.3">
       <c r="O40" s="6" t="s">
@@ -18749,12 +18797,1804 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40702C28-AEBD-47E7-8513-81FE413835A5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="16" width="6.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" t="str">
+        <f>CONCATENATE(A3, " &amp;", B3," &amp;", C3," &amp;", D3," &amp; ", " &amp;", F3," &amp;", G3," &amp;", H3," &amp;", " &amp;", J3," &amp;", K3," &amp;", L3," &amp;", " &amp;", N3," &amp;", O3," &amp;", P3,"\\")</f>
+        <v xml:space="preserve"> &amp;REINFORCE &amp; &amp; &amp;  &amp;SB-3 A2C &amp; &amp; &amp; &amp;SB-3 DQN &amp; &amp; &amp; &amp;SB-3 PPO &amp; &amp;\\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" t="str">
+        <f>CONCATENATE(A4, " &amp;", B4," &amp;", C4," &amp;", D4," &amp; ", " &amp;", F4," &amp;", G4," &amp;", H4," &amp;", " &amp;", J4," &amp;", K4," &amp;", L4," &amp;", " &amp;", N4," &amp;", O4," &amp;", P4,"\\")</f>
+        <v>Model &amp;Precision &amp;Recall &amp;F1 &amp;  &amp;Precision &amp;Recall &amp;F1 &amp; &amp;Precision &amp;Recall &amp;F1 &amp; &amp;Precision &amp;Recall &amp;F1\\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:R19" si="0">CONCATENATE(A5, " &amp;", B5," &amp;", C5," &amp;", D5," &amp; ", " &amp;", F5," &amp;", G5," &amp;", H5," &amp;", " &amp;", J5," &amp;", K5," &amp;", L5," &amp;", " &amp;", N5," &amp;", O5," &amp;", P5,"\\")</f>
+        <v>Simulated  - No noise &amp;1 &amp;0.7 &amp;0.823 &amp;  &amp;0.487 &amp;0.44 &amp;0.46 &amp; &amp;0.067 &amp;0.01 &amp;0.017 &amp; &amp;0.457 &amp;0.28 &amp;0.343\\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulated  - Low NBD &amp;0.938 &amp;0.9 &amp;0.918 &amp;  &amp;0 &amp;0 &amp;0 &amp; &amp;0.45 &amp;0.03 &amp;0.055 &amp; &amp;0.367 &amp;0.06 &amp;0.103\\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>Simulated  - High NBD &amp;0.895 &amp;1 &amp;0.944 &amp;  &amp;0.498 &amp;0.53 &amp;0.511 &amp; &amp;0.497 &amp;0.96 &amp;0.655 &amp; &amp;0.584 &amp;0.15 &amp;0.237\\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>0.498</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS - No noise &amp;0.907 &amp;0.96 &amp;0.932 &amp;  &amp;0.523 &amp;0.56 &amp;0.538 &amp; &amp;0.367 &amp;0.03 &amp;0.055 &amp; &amp;0.498 &amp;0.25 &amp;0.332\\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.192</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS - Low NBD &amp;0.886 &amp;0.8 &amp;0.836 &amp;  &amp;0.38 &amp;0.13 &amp;0.192 &amp; &amp;0.4 &amp;0.02 &amp;0.038 &amp; &amp;0.463 &amp;0.14 &amp;0.207\\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 SS - High NBD &amp;0.783 &amp;0.93 &amp;0.849 &amp;  &amp;0 &amp;0 &amp;0 &amp; &amp;0.508 &amp;0.96 &amp;0.664 &amp; &amp;0.519 &amp;0.21 &amp;0.287\\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS - No noise &amp;0.821 &amp;0.96 &amp;0.885 &amp;  &amp;0.513 &amp;0.09 &amp;0.149 &amp; &amp;0.497 &amp;0.97 &amp;0.657 &amp; &amp;0.489 &amp;0.47 &amp;0.478\\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS - Low NBD &amp;0.739 &amp;0.99 &amp;0.846 &amp;  &amp;0.474 &amp;0.51 &amp;0.487 &amp; &amp;0.706 &amp;0.72 &amp;0.712 &amp; &amp;0.532 &amp;0.28 &amp;0.366\\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 SS - High NBD &amp;0.671 &amp;0.78 &amp;0.72 &amp;  &amp;0.522 &amp;0.55 &amp;0.534 &amp; &amp;0.5 &amp;0.98 &amp;0.662 &amp; &amp;0.472 &amp;0.25 &amp;0.325\\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS - No noise &amp;1 &amp;0.65 &amp;0.785 &amp;  &amp;0.465 &amp;0.46 &amp;0.461 &amp; &amp;0.511 &amp;0.98 &amp;0.671 &amp; &amp;0.379 &amp;0.14 &amp;0.198\\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS - Low NBD &amp;0.978 &amp;0.84 &amp;0.902 &amp;  &amp;0.493 &amp;0.53 &amp;0.508 &amp; &amp;0.951 &amp;0.58 &amp;0.72 &amp; &amp;0.5 &amp;0.38 &amp;0.432\\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 SS - High NBD &amp;0.715 &amp;0.88 &amp;0.789 &amp;  &amp;0.505 &amp;0.47 &amp;0.482 &amp; &amp;0.505 &amp;0.98 &amp;0.667 &amp; &amp;0.369 &amp;0.11 &amp;0.169\\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.313</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C01 MS - No noise &amp;0.798 &amp;0.92 &amp;0.852 &amp;  &amp;0.514 &amp;0.59 &amp;0.549 &amp; &amp;0.584 &amp;0.97 &amp;0.729 &amp; &amp;0.486 &amp;0.24 &amp;0.313\\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C04 MS - No noise &amp;0.774 &amp;0.69 &amp;0.728 &amp;  &amp;0.476 &amp;0.53 &amp;0.5 &amp; &amp;0.506 &amp;0.97 &amp;0.664 &amp; &amp;0.495 &amp;0.34 &amp;0.401\\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="0"/>
+        <v>PHM C06 MS - No noise &amp;1 &amp;0.57 &amp;0.725 &amp;  &amp;0.491 &amp;0.6 &amp;0.536 &amp; &amp;0.492 &amp;0.96 &amp;0.651 &amp; &amp;0.446 &amp;0.48 &amp;0.46\\</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>A4</f>
+        <v>Model</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>A5</f>
+        <v>Simulated  - No noise</v>
+      </c>
+      <c r="B23" t="str">
+        <f>TEXT(B5, "0.000")</f>
+        <v>1.000</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:P23" si="1">TEXT(C5, "0.000")</f>
+        <v>0.700</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.823</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.000</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.487</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.440</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.460</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.000</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.067</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.010</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.017</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.000</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.457</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.280</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>A6</f>
+        <v>Simulated  - Low NBD</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ref="B24:P24" si="2">TEXT(B6, "0.000")</f>
+        <v>0.938</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.900</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.918</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.450</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.030</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.055</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.000</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.367</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.060</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="2"/>
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>A7</f>
+        <v>Simulated  - High NBD</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ref="B25:P25" si="3">TEXT(B7, "0.000")</f>
+        <v>0.895</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v>1.000</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.944</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.000</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.498</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.530</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.511</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.000</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.497</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.960</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.655</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.000</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.584</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.150</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="3"/>
+        <v>0.237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>A8</f>
+        <v>PHM C01 SS - No noise</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" ref="B26:P26" si="4">TEXT(B8, "0.000")</f>
+        <v>0.907</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.960</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.932</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.000</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.523</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.560</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.538</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.000</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.367</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.030</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.055</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.000</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.498</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.250</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="4"/>
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>A9</f>
+        <v>PHM C01 SS - Low NBD</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ref="B27:P27" si="5">TEXT(B9, "0.000")</f>
+        <v>0.886</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.800</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.836</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.000</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.380</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.130</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.192</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.000</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.400</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.020</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.038</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.000</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.463</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.140</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="5"/>
+        <v>0.207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>A10</f>
+        <v>PHM C01 SS - High NBD</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" ref="B28:P28" si="6">TEXT(B10, "0.000")</f>
+        <v>0.783</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.930</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.849</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.508</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.960</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.664</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.000</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.519</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.210</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>A11</f>
+        <v>PHM C04 SS - No noise</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ref="B29:P29" si="7">TEXT(B11, "0.000")</f>
+        <v>0.821</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.960</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.885</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.513</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.090</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.149</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.497</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.970</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.657</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.000</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.489</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.470</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>0.478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>A12</f>
+        <v>PHM C04 SS - Low NBD</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ref="B30:P30" si="8">TEXT(B12, "0.000")</f>
+        <v>0.739</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.990</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.846</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.474</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.510</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.487</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.706</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.720</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.712</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.000</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.532</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.280</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="8"/>
+        <v>0.366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>A13</f>
+        <v>PHM C04 SS - High NBD</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ref="B31:P31" si="9">TEXT(B13, "0.000")</f>
+        <v>0.671</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.780</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.720</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.000</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.522</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.550</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.534</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.000</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.500</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.980</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.662</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.000</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.472</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.250</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="9"/>
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>A14</f>
+        <v>PHM C06 SS - No noise</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ref="B32:P32" si="10">TEXT(B14, "0.000")</f>
+        <v>1.000</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.650</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.785</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.000</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.465</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.460</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.461</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.000</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.511</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.980</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.671</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.000</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.379</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.140</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="10"/>
+        <v>0.198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>A15</f>
+        <v>PHM C06 SS - Low NBD</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ref="B33:P33" si="11">TEXT(B15, "0.000")</f>
+        <v>0.978</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.840</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.902</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.000</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.493</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.530</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.508</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.000</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.951</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.580</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.720</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.000</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.500</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.380</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="11"/>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>A16</f>
+        <v>PHM C06 SS - High NBD</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ref="B34:P34" si="12">TEXT(B16, "0.000")</f>
+        <v>0.715</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.880</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.789</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.000</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.505</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.470</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.482</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.000</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.505</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.980</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.667</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.000</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.369</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.110</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="12"/>
+        <v>0.169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>A17</f>
+        <v>PHM C01 MS - No noise</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" ref="B35:P35" si="13">TEXT(B17, "0.000")</f>
+        <v>0.798</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.920</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.852</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.514</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.590</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.549</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.584</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.970</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.729</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.000</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.486</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.240</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="13"/>
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>A18</f>
+        <v>PHM C04 MS - No noise</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" ref="B36:P36" si="14">TEXT(B18, "0.000")</f>
+        <v>0.774</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.690</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.728</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.000</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.476</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.530</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.500</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.000</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.506</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.970</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.664</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.000</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.495</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.340</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="14"/>
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>A19</f>
+        <v>PHM C06 MS - No noise</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" ref="B37:P37" si="15">TEXT(B19, "0.000")</f>
+        <v>1.000</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.570</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.725</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.000</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.491</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.600</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.536</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.000</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.492</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.960</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.651</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.000</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.446</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.480</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="15"/>
+        <v>0.460</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>